--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9855</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.953099999999989</v>
+        <v>5.959199999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.81579999999999</v>
+        <v>12.65789999999999</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.005600000000006</v>
+        <v>8.934000000000005</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.691999999999995</v>
+        <v>5.765299999999996</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.755899999999998</v>
+        <v>5.932599999999995</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.774899999999993</v>
+        <v>5.943999999999993</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
